--- a/cypress/integration/Test/Testcases.xlsx
+++ b/cypress/integration/Test/Testcases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dhaks\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dhaks\Autom\EncoraAssignment\cypress\integration\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>SCENARIO</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Traveller gets adviced before the trip about the  weather</t>
+  </si>
+  <si>
+    <t>TESTCASE</t>
+  </si>
+  <si>
+    <t>STEPS</t>
   </si>
 </sst>
 </file>
@@ -92,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -100,12 +106,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,104 +459,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>